--- a/Best_ind.xlsx
+++ b/Best_ind.xlsx
@@ -429,28 +429,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2.625808762648877</v>
+        <v>0.6321665265103154</v>
       </c>
       <c r="B2">
-        <v>0.3453642387926324</v>
+        <v>3.679008234820624</v>
       </c>
       <c r="C2">
-        <v>8.310200325633959</v>
+        <v>0.6531853927965741</v>
       </c>
       <c r="D2">
-        <v>3.950680402641761</v>
+        <v>0.9380293552940425</v>
       </c>
       <c r="E2">
-        <v>0.4852900916227896</v>
+        <v>1.065971394743967</v>
       </c>
       <c r="F2">
-        <v>2.784698488119672</v>
+        <v>3.019339841569947</v>
       </c>
       <c r="G2">
-        <v>0.1625356134205081</v>
+        <v>0.1955570489658405</v>
       </c>
       <c r="H2">
-        <v>1.013011385837633</v>
+        <v>0.6129397122628455</v>
       </c>
     </row>
   </sheetData>

--- a/Best_ind.xlsx
+++ b/Best_ind.xlsx
@@ -429,28 +429,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0.6321665265103154</v>
+        <v>1.035508921637938</v>
       </c>
       <c r="B2">
-        <v>3.679008234820624</v>
+        <v>0.2995976602427158</v>
       </c>
       <c r="C2">
-        <v>0.6531853927965741</v>
+        <v>5.200744155601759</v>
       </c>
       <c r="D2">
-        <v>0.9380293552940425</v>
+        <v>1.707048598028435</v>
       </c>
       <c r="E2">
-        <v>1.065971394743967</v>
+        <v>0.1668196853520747</v>
       </c>
       <c r="F2">
-        <v>3.019339841569947</v>
+        <v>8.452104747182693</v>
       </c>
       <c r="G2">
-        <v>0.1955570489658405</v>
+        <v>8.299780601469189</v>
       </c>
       <c r="H2">
-        <v>0.6129397122628455</v>
+        <v>4.059061031363553</v>
       </c>
     </row>
   </sheetData>

--- a/Best_ind.xlsx
+++ b/Best_ind.xlsx
@@ -423,25 +423,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3.80669887855207</v>
+        <v>9.020964016698466</v>
       </c>
       <c r="B2">
-        <v>0.5516655270983762</v>
+        <v>0.1257249182103638</v>
       </c>
       <c r="C2">
-        <v>0.2456868396903436</v>
+        <v>0.3563966690489593</v>
       </c>
       <c r="D2">
-        <v>0.157574879571852</v>
+        <v>0.1447226242350437</v>
       </c>
       <c r="E2">
-        <v>0.2396280038095522</v>
+        <v>6.458151772929151</v>
       </c>
       <c r="F2">
-        <v>0.9360682447939973</v>
+        <v>4.195415678702518</v>
       </c>
       <c r="G2">
-        <v>0.2086346984032365</v>
+        <v>0.3618386767387275</v>
       </c>
     </row>
   </sheetData>
